--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Bmp4-Bmpr1a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H2">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I2">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J2">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N2">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P2">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q2">
-        <v>16.96955068334644</v>
+        <v>40.61021589123023</v>
       </c>
       <c r="R2">
-        <v>152.725956150118</v>
+        <v>365.491943021072</v>
       </c>
       <c r="S2">
-        <v>0.01529237845152862</v>
+        <v>0.0262406072885489</v>
       </c>
       <c r="T2">
-        <v>0.01529237845152862</v>
+        <v>0.02624060728854891</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H3">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I3">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J3">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>118.340805</v>
       </c>
       <c r="O3">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P3">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q3">
-        <v>177.6926502520217</v>
+        <v>320.8282601625567</v>
       </c>
       <c r="R3">
-        <v>1599.233852268195</v>
+        <v>2887.45434146301</v>
       </c>
       <c r="S3">
-        <v>0.1601305365365844</v>
+        <v>0.2073056790572757</v>
       </c>
       <c r="T3">
-        <v>0.1601305365365844</v>
+        <v>0.2073056790572757</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4.504599666666667</v>
+        <v>8.133160666666667</v>
       </c>
       <c r="H4">
-        <v>13.513799</v>
+        <v>24.399482</v>
       </c>
       <c r="I4">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="J4">
-        <v>0.2870666703033801</v>
+        <v>0.3870696756706061</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N4">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P4">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q4">
-        <v>118.6218948420986</v>
+        <v>236.5298933689744</v>
       </c>
       <c r="R4">
-        <v>1067.597053578887</v>
+        <v>2128.76904032077</v>
       </c>
       <c r="S4">
-        <v>0.1068979929057894</v>
+        <v>0.1528356328004142</v>
       </c>
       <c r="T4">
-        <v>0.1068979929057894</v>
+        <v>0.1528356328004142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>25</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>8.133160666666667</v>
+      </c>
+      <c r="H5">
+        <v>24.399482</v>
+      </c>
+      <c r="I5">
+        <v>0.3870696756706061</v>
+      </c>
+      <c r="J5">
+        <v>0.3870696756706061</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>4.504599666666667</v>
-      </c>
-      <c r="H5">
-        <v>13.513799</v>
-      </c>
-      <c r="I5">
-        <v>0.2870666703033801</v>
-      </c>
-      <c r="J5">
-        <v>0.2870666703033801</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
       <c r="M5">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N5">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P5">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q5">
-        <v>5.266247889039221</v>
+        <v>1.064378603286</v>
       </c>
       <c r="R5">
-        <v>47.39623100135299</v>
+        <v>9.579407429574001</v>
       </c>
       <c r="S5">
-        <v>0.004745762409477659</v>
+        <v>0.0006877565243673966</v>
       </c>
       <c r="T5">
-        <v>0.00474576240947766</v>
+        <v>0.0006877565243673967</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>22.440219</v>
       </c>
       <c r="I6">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J6">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N6">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O6">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P6">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q6">
-        <v>28.17863678939533</v>
+        <v>37.34924119440267</v>
       </c>
       <c r="R6">
-        <v>253.607731104558</v>
+        <v>336.143170749624</v>
       </c>
       <c r="S6">
-        <v>0.02539362332406921</v>
+        <v>0.0241335030902719</v>
       </c>
       <c r="T6">
-        <v>0.02539362332406921</v>
+        <v>0.0241335030902719</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>22.440219</v>
       </c>
       <c r="I7">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J7">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>118.340805</v>
       </c>
       <c r="O7">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P7">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q7">
         <v>295.065953426255</v>
@@ -883,10 +883,10 @@
         <v>2655.593580836295</v>
       </c>
       <c r="S7">
-        <v>0.2659033413526762</v>
+        <v>0.1906591639113068</v>
       </c>
       <c r="T7">
-        <v>0.2659033413526762</v>
+        <v>0.1906591639113068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>22.440219</v>
       </c>
       <c r="I8">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J8">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N8">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O8">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P8">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q8">
-        <v>196.9765347591497</v>
+        <v>217.5366922644683</v>
       </c>
       <c r="R8">
-        <v>1772.788812832347</v>
+        <v>1957.830230380215</v>
       </c>
       <c r="S8">
-        <v>0.1775085134436557</v>
+        <v>0.1405630279792365</v>
       </c>
       <c r="T8">
-        <v>0.1775085134436557</v>
+        <v>0.1405630279792365</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>22.440219</v>
       </c>
       <c r="I9">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="J9">
-        <v>0.476686011772755</v>
+        <v>0.3559882250904906</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N9">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O9">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P9">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q9">
-        <v>8.744821196343665</v>
+        <v>0.9789096734370001</v>
       </c>
       <c r="R9">
-        <v>78.70339076709298</v>
+        <v>8.810187060933</v>
       </c>
       <c r="S9">
-        <v>0.00788053365235389</v>
+        <v>0.0006325301096754111</v>
       </c>
       <c r="T9">
-        <v>0.00788053365235389</v>
+        <v>0.000632530109675411</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.707151333333333</v>
+        <v>5.398902333333333</v>
       </c>
       <c r="H10">
-        <v>11.121454</v>
+        <v>16.196707</v>
       </c>
       <c r="I10">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389033</v>
       </c>
       <c r="J10">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389034</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.767160666666667</v>
+        <v>4.993165333333334</v>
       </c>
       <c r="N10">
-        <v>11.301482</v>
+        <v>14.979496</v>
       </c>
       <c r="O10">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037136</v>
       </c>
       <c r="P10">
-        <v>0.05327117368020191</v>
+        <v>0.06779298131037137</v>
       </c>
       <c r="Q10">
-        <v>13.96543468831422</v>
+        <v>26.95761196885244</v>
       </c>
       <c r="R10">
-        <v>125.688912194828</v>
+        <v>242.618507719672</v>
       </c>
       <c r="S10">
-        <v>0.01258517190460409</v>
+        <v>0.01741887093155055</v>
       </c>
       <c r="T10">
-        <v>0.01258517190460409</v>
+        <v>0.01741887093155056</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.707151333333333</v>
+        <v>5.398902333333333</v>
       </c>
       <c r="H11">
-        <v>11.121454</v>
+        <v>16.196707</v>
       </c>
       <c r="I11">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389033</v>
       </c>
       <c r="J11">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389034</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>118.340805</v>
       </c>
       <c r="O11">
-        <v>0.5578165391591924</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="P11">
-        <v>0.5578165391591923</v>
+        <v>0.5355771637189464</v>
       </c>
       <c r="Q11">
-        <v>146.2357576811634</v>
+        <v>212.9701494143483</v>
       </c>
       <c r="R11">
-        <v>1316.12181913047</v>
+        <v>1916.731344729135</v>
       </c>
       <c r="S11">
-        <v>0.1317826612699317</v>
+        <v>0.1376123207503639</v>
       </c>
       <c r="T11">
-        <v>0.1317826612699317</v>
+        <v>0.1376123207503639</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.707151333333333</v>
+        <v>5.398902333333333</v>
       </c>
       <c r="H12">
-        <v>11.121454</v>
+        <v>16.196707</v>
       </c>
       <c r="I12">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389033</v>
       </c>
       <c r="J12">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389034</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>26.33350433333333</v>
+        <v>29.08216166666666</v>
       </c>
       <c r="N12">
-        <v>79.000513</v>
+        <v>87.24648499999999</v>
       </c>
       <c r="O12">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="P12">
-        <v>0.372380370012362</v>
+        <v>0.3948530262300277</v>
       </c>
       <c r="Q12">
-        <v>97.62228570065578</v>
+        <v>157.0117504805439</v>
       </c>
       <c r="R12">
-        <v>878.600571305902</v>
+        <v>1413.105754324895</v>
       </c>
       <c r="S12">
-        <v>0.08797386366291693</v>
+        <v>0.1014543654503771</v>
       </c>
       <c r="T12">
-        <v>0.08797386366291694</v>
+        <v>0.1014543654503771</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.707151333333333</v>
+        <v>5.398902333333333</v>
       </c>
       <c r="H13">
-        <v>11.121454</v>
+        <v>16.196707</v>
       </c>
       <c r="I13">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389033</v>
       </c>
       <c r="J13">
-        <v>0.2362473179238649</v>
+        <v>0.2569420992389034</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>1.169082333333333</v>
+        <v>0.130869</v>
       </c>
       <c r="N13">
-        <v>3.507247</v>
+        <v>0.392607</v>
       </c>
       <c r="O13">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654623</v>
       </c>
       <c r="P13">
-        <v>0.01653191714824366</v>
+        <v>0.001776828740654624</v>
       </c>
       <c r="Q13">
-        <v>4.333965130793111</v>
+        <v>0.706548949461</v>
       </c>
       <c r="R13">
-        <v>39.005686177138</v>
+        <v>6.358940545149</v>
       </c>
       <c r="S13">
-        <v>0.003905621086412115</v>
+        <v>0.0004565421066118158</v>
       </c>
       <c r="T13">
-        <v>0.003905621086412115</v>
+        <v>0.000456542106611816</v>
       </c>
     </row>
   </sheetData>
